--- a/_nhandt/ReactJS_Training_Schedule_Report.xlsx
+++ b/_nhandt/ReactJS_Training_Schedule_Report.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="116">
   <si>
     <t>Training Outline</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>28/06</t>
+  </si>
+  <si>
+    <t>90/100</t>
   </si>
 </sst>
 </file>
@@ -849,40 +852,40 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4526,8 +4529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5431,10 +5434,10 @@
       </c>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="B8" s="80">
+      <c r="B8" s="81">
         <v>3</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="78" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -5444,10 +5447,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="75" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="12" t="s">
@@ -5464,8 +5467,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1">
-      <c r="B9" s="81"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
@@ -5473,8 +5476,8 @@
         <v>8</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="84"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="12" t="s">
         <v>110</v>
       </c>
@@ -5489,8 +5492,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1">
-      <c r="B10" s="81"/>
-      <c r="C10" s="78"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
@@ -5498,8 +5501,8 @@
         <v>8</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="84"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="12" t="s">
         <v>110</v>
       </c>
@@ -5514,8 +5517,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="51">
-      <c r="B11" s="81"/>
-      <c r="C11" s="78"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="8" t="s">
         <v>49</v>
       </c>
@@ -5523,8 +5526,8 @@
         <v>8</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="84"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="12" t="s">
         <v>110</v>
       </c>
@@ -5539,8 +5542,8 @@
       </c>
     </row>
     <row r="12" spans="2:12" s="1" customFormat="1">
-      <c r="B12" s="81"/>
-      <c r="C12" s="78"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
@@ -5548,8 +5551,8 @@
         <v>8</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="84"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="12" t="s">
         <v>110</v>
       </c>
@@ -5564,8 +5567,8 @@
       </c>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1">
-      <c r="B13" s="82"/>
-      <c r="C13" s="79"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="62" t="s">
         <v>102</v>
       </c>
@@ -5573,18 +5576,18 @@
         <v>2</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="84"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" s="1" customFormat="1">
-      <c r="B14" s="80">
+      <c r="B14" s="81">
         <v>4</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="84" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -5594,10 +5597,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="84"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="12" t="s">
         <v>114</v>
       </c>
@@ -5612,8 +5615,8 @@
       </c>
     </row>
     <row r="15" spans="2:12" s="1" customFormat="1">
-      <c r="B15" s="81"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="15" t="s">
         <v>64</v>
       </c>
@@ -5621,8 +5624,8 @@
         <v>8</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="84"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="76"/>
       <c r="I15" s="12" t="s">
         <v>114</v>
       </c>
@@ -5637,8 +5640,8 @@
       </c>
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1">
-      <c r="B16" s="81"/>
-      <c r="C16" s="86"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
@@ -5646,8 +5649,8 @@
         <v>8</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="84"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="12" t="s">
         <v>114</v>
       </c>
@@ -5662,8 +5665,8 @@
       </c>
     </row>
     <row r="17" spans="2:12" s="1" customFormat="1">
-      <c r="B17" s="81"/>
-      <c r="C17" s="86"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="15" t="s">
         <v>68</v>
       </c>
@@ -5671,8 +5674,8 @@
         <v>8</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="84"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="76"/>
       <c r="I17" s="12" t="s">
         <v>114</v>
       </c>
@@ -5687,8 +5690,8 @@
       </c>
     </row>
     <row r="18" spans="2:12" s="1" customFormat="1">
-      <c r="B18" s="81"/>
-      <c r="C18" s="86"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="15" t="s">
         <v>70</v>
       </c>
@@ -5696,8 +5699,8 @@
         <v>8</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="84"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="12" t="s">
         <v>114</v>
       </c>
@@ -5712,8 +5715,8 @@
       </c>
     </row>
     <row r="19" spans="2:12" s="1" customFormat="1">
-      <c r="B19" s="81"/>
-      <c r="C19" s="86"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="15" t="s">
         <v>72</v>
       </c>
@@ -5721,18 +5724,24 @@
         <v>8</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="12">
+        <v>43592</v>
+      </c>
+      <c r="J19" s="12">
+        <v>43776</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="L19" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20" spans="2:12" s="1" customFormat="1">
-      <c r="B20" s="81"/>
-      <c r="C20" s="86"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="15" t="s">
         <v>74</v>
       </c>
@@ -5740,18 +5749,24 @@
         <v>8</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="12">
+        <v>43592</v>
+      </c>
+      <c r="J20" s="12">
+        <v>43776</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="L20" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:12" s="1" customFormat="1">
-      <c r="B21" s="81"/>
-      <c r="C21" s="86"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="15" t="s">
         <v>76</v>
       </c>
@@ -5759,18 +5774,24 @@
         <v>16</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="12">
+        <v>43592</v>
+      </c>
+      <c r="J21" s="12">
+        <v>43776</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="L21" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="2:12" s="1" customFormat="1">
-      <c r="B22" s="81"/>
-      <c r="C22" s="86"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="15" t="s">
         <v>78</v>
       </c>
@@ -5778,18 +5799,24 @@
         <v>16</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="12">
+        <v>43592</v>
+      </c>
+      <c r="J22" s="12">
+        <v>43776</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>115</v>
+      </c>
       <c r="L22" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:12" s="1" customFormat="1">
-      <c r="B23" s="81"/>
-      <c r="C23" s="86"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="15" t="s">
         <v>80</v>
       </c>
@@ -5797,8 +5824,8 @@
         <v>16</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="84"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="76"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
@@ -5807,8 +5834,8 @@
       </c>
     </row>
     <row r="24" spans="2:12" s="1" customFormat="1" ht="25.5">
-      <c r="B24" s="81"/>
-      <c r="C24" s="86"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="15" t="s">
         <v>82</v>
       </c>
@@ -5816,8 +5843,8 @@
         <v>20</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="84"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
@@ -5826,8 +5853,8 @@
       </c>
     </row>
     <row r="25" spans="2:12" s="1" customFormat="1">
-      <c r="B25" s="81"/>
-      <c r="C25" s="86"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="15" t="s">
         <v>84</v>
       </c>
@@ -5835,8 +5862,8 @@
         <v>20</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="85"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="77"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -5845,8 +5872,8 @@
       </c>
     </row>
     <row r="26" spans="2:12" s="1" customFormat="1">
-      <c r="B26" s="81"/>
-      <c r="C26" s="76"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="62" t="s">
         <v>108</v>
       </c>
@@ -5854,7 +5881,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="79"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="57"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -5862,10 +5889,10 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="2:12" s="1" customFormat="1" ht="38.25">
-      <c r="B27" s="81">
+      <c r="B27" s="82">
         <v>5</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="84" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="44" t="s">
@@ -5875,7 +5902,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="77" t="s">
+      <c r="G27" s="78" t="s">
         <v>88</v>
       </c>
       <c r="H27" s="53"/>
@@ -5887,8 +5914,8 @@
       </c>
     </row>
     <row r="28" spans="2:12" s="1" customFormat="1">
-      <c r="B28" s="82"/>
-      <c r="C28" s="76"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="86"/>
       <c r="D28" s="62" t="s">
         <v>109</v>
       </c>
@@ -5896,7 +5923,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="15"/>
-      <c r="G28" s="79"/>
+      <c r="G28" s="80"/>
       <c r="H28" s="57"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -5983,6 +6010,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="G14:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="H8:H25"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="B8:B13"/>
@@ -5998,12 +6031,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="G14:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B14:B26"/>
-    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" display="https://www.w3schools.com/js/default.asp"/>

--- a/_nhandt/ReactJS_Training_Schedule_Report.xlsx
+++ b/_nhandt/ReactJS_Training_Schedule_Report.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="117">
   <si>
     <t>Training Outline</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>90/100</t>
+  </si>
+  <si>
+    <t>18/7/2019</t>
   </si>
 </sst>
 </file>
@@ -852,6 +855,30 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -861,31 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4530,7 +4533,7 @@
   <dimension ref="B2:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5434,10 +5437,10 @@
       </c>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="B8" s="81">
+      <c r="B8" s="80">
         <v>3</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="77" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -5447,10 +5450,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="75" t="s">
+      <c r="H8" s="83" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="12" t="s">
@@ -5467,8 +5470,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1">
-      <c r="B9" s="82"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
@@ -5476,8 +5479,8 @@
         <v>8</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="76"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="12" t="s">
         <v>110</v>
       </c>
@@ -5492,8 +5495,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1">
-      <c r="B10" s="82"/>
-      <c r="C10" s="79"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
@@ -5501,8 +5504,8 @@
         <v>8</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="76"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="84"/>
       <c r="I10" s="12" t="s">
         <v>110</v>
       </c>
@@ -5517,8 +5520,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="51">
-      <c r="B11" s="82"/>
-      <c r="C11" s="79"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="8" t="s">
         <v>49</v>
       </c>
@@ -5526,8 +5529,8 @@
         <v>8</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="76"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="84"/>
       <c r="I11" s="12" t="s">
         <v>110</v>
       </c>
@@ -5542,8 +5545,8 @@
       </c>
     </row>
     <row r="12" spans="2:12" s="1" customFormat="1">
-      <c r="B12" s="82"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
@@ -5551,8 +5554,8 @@
         <v>8</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="76"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="84"/>
       <c r="I12" s="12" t="s">
         <v>110</v>
       </c>
@@ -5567,8 +5570,8 @@
       </c>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1">
-      <c r="B13" s="83"/>
-      <c r="C13" s="80"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="62" t="s">
         <v>102</v>
       </c>
@@ -5576,18 +5579,18 @@
         <v>2</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="76"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="84"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" s="1" customFormat="1">
-      <c r="B14" s="81">
+      <c r="B14" s="80">
         <v>4</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="75" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -5597,10 +5600,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="78" t="s">
+      <c r="G14" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="76"/>
+      <c r="H14" s="84"/>
       <c r="I14" s="12" t="s">
         <v>114</v>
       </c>
@@ -5615,8 +5618,8 @@
       </c>
     </row>
     <row r="15" spans="2:12" s="1" customFormat="1">
-      <c r="B15" s="82"/>
-      <c r="C15" s="85"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="15" t="s">
         <v>64</v>
       </c>
@@ -5624,8 +5627,8 @@
         <v>8</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="76"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="84"/>
       <c r="I15" s="12" t="s">
         <v>114</v>
       </c>
@@ -5640,8 +5643,8 @@
       </c>
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1">
-      <c r="B16" s="82"/>
-      <c r="C16" s="85"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
@@ -5649,8 +5652,8 @@
         <v>8</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="76"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="12" t="s">
         <v>114</v>
       </c>
@@ -5665,8 +5668,8 @@
       </c>
     </row>
     <row r="17" spans="2:12" s="1" customFormat="1">
-      <c r="B17" s="82"/>
-      <c r="C17" s="85"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="15" t="s">
         <v>68</v>
       </c>
@@ -5674,8 +5677,8 @@
         <v>8</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="76"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="84"/>
       <c r="I17" s="12" t="s">
         <v>114</v>
       </c>
@@ -5690,8 +5693,8 @@
       </c>
     </row>
     <row r="18" spans="2:12" s="1" customFormat="1">
-      <c r="B18" s="82"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="15" t="s">
         <v>70</v>
       </c>
@@ -5699,8 +5702,8 @@
         <v>8</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="76"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="84"/>
       <c r="I18" s="12" t="s">
         <v>114</v>
       </c>
@@ -5715,8 +5718,8 @@
       </c>
     </row>
     <row r="19" spans="2:12" s="1" customFormat="1">
-      <c r="B19" s="82"/>
-      <c r="C19" s="85"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="15" t="s">
         <v>72</v>
       </c>
@@ -5724,8 +5727,8 @@
         <v>8</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="76"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="84"/>
       <c r="I19" s="12">
         <v>43592</v>
       </c>
@@ -5740,8 +5743,8 @@
       </c>
     </row>
     <row r="20" spans="2:12" s="1" customFormat="1">
-      <c r="B20" s="82"/>
-      <c r="C20" s="85"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="15" t="s">
         <v>74</v>
       </c>
@@ -5749,8 +5752,8 @@
         <v>8</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="76"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="84"/>
       <c r="I20" s="12">
         <v>43592</v>
       </c>
@@ -5765,8 +5768,8 @@
       </c>
     </row>
     <row r="21" spans="2:12" s="1" customFormat="1">
-      <c r="B21" s="82"/>
-      <c r="C21" s="85"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="15" t="s">
         <v>76</v>
       </c>
@@ -5774,8 +5777,8 @@
         <v>16</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="76"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="84"/>
       <c r="I21" s="12">
         <v>43592</v>
       </c>
@@ -5790,8 +5793,8 @@
       </c>
     </row>
     <row r="22" spans="2:12" s="1" customFormat="1">
-      <c r="B22" s="82"/>
-      <c r="C22" s="85"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="86"/>
       <c r="D22" s="15" t="s">
         <v>78</v>
       </c>
@@ -5799,8 +5802,8 @@
         <v>16</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="76"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="84"/>
       <c r="I22" s="12">
         <v>43592</v>
       </c>
@@ -5815,8 +5818,8 @@
       </c>
     </row>
     <row r="23" spans="2:12" s="1" customFormat="1">
-      <c r="B23" s="82"/>
-      <c r="C23" s="85"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="86"/>
       <c r="D23" s="15" t="s">
         <v>80</v>
       </c>
@@ -5824,18 +5827,24 @@
         <v>16</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="12">
+        <v>43806</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="L23" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:12" s="1" customFormat="1" ht="25.5">
-      <c r="B24" s="82"/>
-      <c r="C24" s="85"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="15" t="s">
         <v>82</v>
       </c>
@@ -5843,18 +5852,24 @@
         <v>20</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="12">
+        <v>43806</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="L24" s="50" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="25" spans="2:12" s="1" customFormat="1">
-      <c r="B25" s="82"/>
-      <c r="C25" s="85"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="86"/>
       <c r="D25" s="15" t="s">
         <v>84</v>
       </c>
@@ -5862,18 +5877,24 @@
         <v>20</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="12">
+        <v>43806</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="L25" s="7" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:12" s="1" customFormat="1">
-      <c r="B26" s="82"/>
-      <c r="C26" s="86"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="62" t="s">
         <v>108</v>
       </c>
@@ -5881,7 +5902,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="80"/>
+      <c r="G26" s="79"/>
       <c r="H26" s="57"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -5889,10 +5910,10 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="2:12" s="1" customFormat="1" ht="38.25">
-      <c r="B27" s="82">
+      <c r="B27" s="81">
         <v>5</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="75" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="44" t="s">
@@ -5902,7 +5923,7 @@
         <v>50</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="78" t="s">
+      <c r="G27" s="77" t="s">
         <v>88</v>
       </c>
       <c r="H27" s="53"/>
@@ -5914,8 +5935,8 @@
       </c>
     </row>
     <row r="28" spans="2:12" s="1" customFormat="1">
-      <c r="B28" s="83"/>
-      <c r="C28" s="86"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="62" t="s">
         <v>109</v>
       </c>
@@ -5923,7 +5944,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="15"/>
-      <c r="G28" s="80"/>
+      <c r="G28" s="79"/>
       <c r="H28" s="57"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -6010,12 +6031,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="G14:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B14:B26"/>
-    <mergeCell ref="B27:B28"/>
     <mergeCell ref="H8:H25"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="B8:B13"/>
@@ -6031,6 +6046,12 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="G14:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" display="https://www.w3schools.com/js/default.asp"/>

--- a/_nhandt/ReactJS_Training_Schedule_Report.xlsx
+++ b/_nhandt/ReactJS_Training_Schedule_Report.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="119">
   <si>
     <t>Training Outline</t>
   </si>
@@ -406,6 +406,12 @@
   </si>
   <si>
     <t>18/7/2019</t>
+  </si>
+  <si>
+    <t>19/07/2019</t>
+  </si>
+  <si>
+    <t>25/07/2019</t>
   </si>
 </sst>
 </file>
@@ -855,40 +861,40 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4533,7 +4539,7 @@
   <dimension ref="B2:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5437,10 +5443,10 @@
       </c>
     </row>
     <row r="8" spans="2:12" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="B8" s="80">
+      <c r="B8" s="81">
         <v>3</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="78" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -5450,10 +5456,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="83" t="s">
+      <c r="H8" s="75" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="12" t="s">
@@ -5470,8 +5476,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" s="1" customFormat="1">
-      <c r="B9" s="81"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="8" t="s">
         <v>44</v>
       </c>
@@ -5479,8 +5485,8 @@
         <v>8</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="84"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="76"/>
       <c r="I9" s="12" t="s">
         <v>110</v>
       </c>
@@ -5495,8 +5501,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" s="1" customFormat="1">
-      <c r="B10" s="81"/>
-      <c r="C10" s="78"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="8" t="s">
         <v>45</v>
       </c>
@@ -5504,8 +5510,8 @@
         <v>8</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="84"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="76"/>
       <c r="I10" s="12" t="s">
         <v>110</v>
       </c>
@@ -5520,8 +5526,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" s="1" customFormat="1" ht="51">
-      <c r="B11" s="81"/>
-      <c r="C11" s="78"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="8" t="s">
         <v>49</v>
       </c>
@@ -5529,8 +5535,8 @@
         <v>8</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="84"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="76"/>
       <c r="I11" s="12" t="s">
         <v>110</v>
       </c>
@@ -5545,8 +5551,8 @@
       </c>
     </row>
     <row r="12" spans="2:12" s="1" customFormat="1">
-      <c r="B12" s="81"/>
-      <c r="C12" s="78"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="8" t="s">
         <v>47</v>
       </c>
@@ -5554,8 +5560,8 @@
         <v>8</v>
       </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="84"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="76"/>
       <c r="I12" s="12" t="s">
         <v>110</v>
       </c>
@@ -5570,8 +5576,8 @@
       </c>
     </row>
     <row r="13" spans="2:12" s="1" customFormat="1">
-      <c r="B13" s="82"/>
-      <c r="C13" s="79"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="62" t="s">
         <v>102</v>
       </c>
@@ -5579,18 +5585,18 @@
         <v>2</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="84"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="L13" s="49"/>
     </row>
     <row r="14" spans="2:12" s="1" customFormat="1">
-      <c r="B14" s="80">
+      <c r="B14" s="81">
         <v>4</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="84" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -5600,10 +5606,10 @@
         <v>8</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="84"/>
+      <c r="H14" s="76"/>
       <c r="I14" s="12" t="s">
         <v>114</v>
       </c>
@@ -5618,8 +5624,8 @@
       </c>
     </row>
     <row r="15" spans="2:12" s="1" customFormat="1">
-      <c r="B15" s="81"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="15" t="s">
         <v>64</v>
       </c>
@@ -5627,8 +5633,8 @@
         <v>8</v>
       </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="84"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="76"/>
       <c r="I15" s="12" t="s">
         <v>114</v>
       </c>
@@ -5643,8 +5649,8 @@
       </c>
     </row>
     <row r="16" spans="2:12" s="1" customFormat="1">
-      <c r="B16" s="81"/>
-      <c r="C16" s="86"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="15" t="s">
         <v>66</v>
       </c>
@@ -5652,8 +5658,8 @@
         <v>8</v>
       </c>
       <c r="F16" s="15"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="84"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="76"/>
       <c r="I16" s="12" t="s">
         <v>114</v>
       </c>
@@ -5668,8 +5674,8 @@
       </c>
     </row>
     <row r="17" spans="2:12" s="1" customFormat="1">
-      <c r="B17" s="81"/>
-      <c r="C17" s="86"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="15" t="s">
         <v>68</v>
       </c>
@@ -5677,8 +5683,8 @@
         <v>8</v>
       </c>
       <c r="F17" s="15"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="84"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="76"/>
       <c r="I17" s="12" t="s">
         <v>114</v>
       </c>
@@ -5693,8 +5699,8 @@
       </c>
     </row>
     <row r="18" spans="2:12" s="1" customFormat="1">
-      <c r="B18" s="81"/>
-      <c r="C18" s="86"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="15" t="s">
         <v>70</v>
       </c>
@@ -5702,8 +5708,8 @@
         <v>8</v>
       </c>
       <c r="F18" s="15"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="84"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="76"/>
       <c r="I18" s="12" t="s">
         <v>114</v>
       </c>
@@ -5718,8 +5724,8 @@
       </c>
     </row>
     <row r="19" spans="2:12" s="1" customFormat="1">
-      <c r="B19" s="81"/>
-      <c r="C19" s="86"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="15" t="s">
         <v>72</v>
       </c>
@@ -5727,8 +5733,8 @@
         <v>8</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="84"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="76"/>
       <c r="I19" s="12">
         <v>43592</v>
       </c>
@@ -5743,8 +5749,8 @@
       </c>
     </row>
     <row r="20" spans="2:12" s="1" customFormat="1">
-      <c r="B20" s="81"/>
-      <c r="C20" s="86"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="15" t="s">
         <v>74</v>
       </c>
@@ -5752,8 +5758,8 @@
         <v>8</v>
       </c>
       <c r="F20" s="15"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="84"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="76"/>
       <c r="I20" s="12">
         <v>43592</v>
       </c>
@@ -5768,8 +5774,8 @@
       </c>
     </row>
     <row r="21" spans="2:12" s="1" customFormat="1">
-      <c r="B21" s="81"/>
-      <c r="C21" s="86"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="15" t="s">
         <v>76</v>
       </c>
@@ -5777,8 +5783,8 @@
         <v>16</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="84"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="76"/>
       <c r="I21" s="12">
         <v>43592</v>
       </c>
@@ -5793,8 +5799,8 @@
       </c>
     </row>
     <row r="22" spans="2:12" s="1" customFormat="1">
-      <c r="B22" s="81"/>
-      <c r="C22" s="86"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="15" t="s">
         <v>78</v>
       </c>
@@ -5802,8 +5808,8 @@
         <v>16</v>
       </c>
       <c r="F22" s="15"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="84"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="76"/>
       <c r="I22" s="12">
         <v>43592</v>
       </c>
@@ -5818,8 +5824,8 @@
       </c>
     </row>
     <row r="23" spans="2:12" s="1" customFormat="1">
-      <c r="B23" s="81"/>
-      <c r="C23" s="86"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="15" t="s">
         <v>80</v>
       </c>
@@ -5827,8 +5833,8 @@
         <v>16</v>
       </c>
       <c r="F23" s="15"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="84"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="76"/>
       <c r="I23" s="12">
         <v>43806</v>
       </c>
@@ -5843,8 +5849,8 @@
       </c>
     </row>
     <row r="24" spans="2:12" s="1" customFormat="1" ht="25.5">
-      <c r="B24" s="81"/>
-      <c r="C24" s="86"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="15" t="s">
         <v>82</v>
       </c>
@@ -5852,8 +5858,8 @@
         <v>20</v>
       </c>
       <c r="F24" s="15"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="84"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="12">
         <v>43806</v>
       </c>
@@ -5868,8 +5874,8 @@
       </c>
     </row>
     <row r="25" spans="2:12" s="1" customFormat="1">
-      <c r="B25" s="81"/>
-      <c r="C25" s="86"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="15" t="s">
         <v>84</v>
       </c>
@@ -5877,8 +5883,8 @@
         <v>20</v>
       </c>
       <c r="F25" s="15"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="85"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="77"/>
       <c r="I25" s="12">
         <v>43806</v>
       </c>
@@ -5893,8 +5899,8 @@
       </c>
     </row>
     <row r="26" spans="2:12" s="1" customFormat="1">
-      <c r="B26" s="81"/>
-      <c r="C26" s="76"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="86"/>
       <c r="D26" s="62" t="s">
         <v>108</v>
       </c>
@@ -5902,7 +5908,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="15"/>
-      <c r="G26" s="79"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="57"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
@@ -5910,10 +5916,10 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="2:12" s="1" customFormat="1" ht="38.25">
-      <c r="B27" s="81">
+      <c r="B27" s="82">
         <v>5</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="84" t="s">
         <v>86</v>
       </c>
       <c r="D27" s="44" t="s">
@@ -5923,20 +5929,26 @@
         <v>50</v>
       </c>
       <c r="F27" s="15"/>
-      <c r="G27" s="77" t="s">
+      <c r="G27" s="78" t="s">
         <v>88</v>
       </c>
       <c r="H27" s="53"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+      <c r="I27" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>112</v>
+      </c>
       <c r="L27" s="50" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="2:12" s="1" customFormat="1">
-      <c r="B28" s="82"/>
-      <c r="C28" s="76"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="86"/>
       <c r="D28" s="62" t="s">
         <v>109</v>
       </c>
@@ -5944,7 +5956,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="15"/>
-      <c r="G28" s="79"/>
+      <c r="G28" s="80"/>
       <c r="H28" s="57"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
@@ -6031,6 +6043,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="G14:G26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="H8:H25"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="B8:B13"/>
@@ -6046,12 +6064,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="G8:G13"/>
-    <mergeCell ref="G14:G26"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="B14:B26"/>
-    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" display="https://www.w3schools.com/js/default.asp"/>
